--- a/results/Beef.xlsx
+++ b/results/Beef.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Beef_SMS5" r:id="rId3" sheetId="1"/>
+    <sheet name="Poultry_SMS5" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Province</t>
   </si>
@@ -42,6 +43,39 @@
   </si>
   <si>
     <t>SK</t>
+  </si>
+  <si>
+    <t>PROV</t>
+  </si>
+  <si>
+    <t>LMS9a</t>
+  </si>
+  <si>
+    <t>LMS9b</t>
+  </si>
+  <si>
+    <t>LMS9c</t>
+  </si>
+  <si>
+    <t>LMS9d</t>
+  </si>
+  <si>
+    <t>LMS9e</t>
+  </si>
+  <si>
+    <t>LMS9f</t>
+  </si>
+  <si>
+    <t>LMS9g</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>QC</t>
   </si>
 </sst>
 </file>
@@ -197,4 +231,251 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/results/Beef.xlsx
+++ b/results/Beef.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Beef_SMS5" r:id="rId3" sheetId="1"/>
     <sheet name="Poultry_SMS5" r:id="rId4" sheetId="2"/>
+    <sheet name="Dairy2022_LMS8" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Province</t>
   </si>
@@ -76,6 +77,24 @@
   </si>
   <si>
     <t>QC</t>
+  </si>
+  <si>
+    <t>SMS4a</t>
+  </si>
+  <si>
+    <t>SMS4b</t>
+  </si>
+  <si>
+    <t>SMS4c</t>
+  </si>
+  <si>
+    <t>SMS4d</t>
+  </si>
+  <si>
+    <t>SMS4e</t>
+  </si>
+  <si>
+    <t>SMS4f</t>
   </si>
 </sst>
 </file>
@@ -478,4 +497,224 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>88.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>156.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>49.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>